--- a/public/files/计算结果2017828.xlsx
+++ b/public/files/计算结果2017828.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -507,188 +507,6 @@
         <v>30378</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>粤东</v>
-      </c>
-      <c r="B3" t="str">
-        <v>东莞-长安</v>
-      </c>
-      <c r="C3">
-        <v>20024300</v>
-      </c>
-      <c r="D3">
-        <v>570024300</v>
-      </c>
-      <c r="E3" t="str">
-        <v>东莞市长安懿圣副食批发店</v>
-      </c>
-      <c r="F3">
-        <v>17600</v>
-      </c>
-      <c r="G3" t="str">
-        <v>旺</v>
-      </c>
-      <c r="H3">
-        <v>835</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>899</v>
-      </c>
-      <c r="M3">
-        <v>27</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Y</v>
-      </c>
-      <c r="O3" t="str">
-        <v>5.11%</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>粤东</v>
-      </c>
-      <c r="B4" t="str">
-        <v>东莞-常平</v>
-      </c>
-      <c r="C4">
-        <v>20154704</v>
-      </c>
-      <c r="D4">
-        <v>570154704</v>
-      </c>
-      <c r="E4" t="str">
-        <v>东莞常平佳兴百货</v>
-      </c>
-      <c r="F4">
-        <v>15400</v>
-      </c>
-      <c r="G4" t="str">
-        <v>旺</v>
-      </c>
-      <c r="H4">
-        <v>479</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>495</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4" t="str">
-        <v>N</v>
-      </c>
-      <c r="O4" t="str">
-        <v>3.21%</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>粤东</v>
-      </c>
-      <c r="B5" t="str">
-        <v>东莞-常平</v>
-      </c>
-      <c r="C5">
-        <v>26266772</v>
-      </c>
-      <c r="D5">
-        <v>576266772</v>
-      </c>
-      <c r="E5" t="str">
-        <v>东莞市勤径百货贸易有限公司</v>
-      </c>
-      <c r="F5">
-        <v>8800</v>
-      </c>
-      <c r="G5" t="str">
-        <v>旺</v>
-      </c>
-      <c r="H5">
-        <v>684</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>709</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5" t="str">
-        <v>N</v>
-      </c>
-      <c r="O5" t="str">
-        <v>8.06%</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>粤东</v>
-      </c>
-      <c r="B6" t="str">
-        <v>东莞-常平</v>
-      </c>
-      <c r="C6">
-        <v>20730689</v>
-      </c>
-      <c r="D6">
-        <v>570730689</v>
-      </c>
-      <c r="E6" t="str">
-        <v>东莞市寮步金伍福副食店</v>
-      </c>
-      <c r="F6">
-        <v>11000</v>
-      </c>
-      <c r="G6" t="str">
-        <v>旺</v>
-      </c>
-      <c r="H6">
-        <v>734</v>
-      </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>751</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="N6" t="str">
-        <v>N</v>
-      </c>
-      <c r="O6" t="str">
-        <v>6.83%</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>